--- a/fajlovi/controller.xlsx
+++ b/fajlovi/controller.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>loadCategory()</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>analytics</t>
+  </si>
+  <si>
+    <t>registrer()</t>
   </si>
 </sst>
 </file>
@@ -516,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
